--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 25789-2021</t>
+          <t>A 15108-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44343.8302662037</v>
+        <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -960,381 +960,381 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 25789-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44343.8302662037</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Gullklöver</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 53422-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Huggorm</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 60261-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 61174-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>46000</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Nordbjörnbär</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 61174-2025 artfynd.xlsx", "A 61174-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 61174-2025 karta.png", "A 61174-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 61174-2025 FSC-klagomål.docx", "A 61174-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 61174-2025 FSC-klagomål mail.docx", "A 61174-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 61174-2025 tillsynsbegäran.docx", "A 61174-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 61174-2025 tillsynsbegäran mail.docx", "A 61174-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 60261-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45642</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 53422-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Huggorm</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 15108-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1737,14 +1737,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 55213-2021</t>
+          <t>A 44466-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44475</v>
+        <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 44466-2021</t>
+          <t>A 55213-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44435</v>
+        <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 2269-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45881</v>
+        <v>45673.54107638889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2136,14 +2136,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 58793-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45671</v>
+        <v>44903.42074074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 58793-2022</t>
+          <t>A 8474-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44903.42074074074</v>
+        <v>44977.50395833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 40154-2025</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45894.5980787037</v>
+        <v>45671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40683-2025</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45896</v>
+        <v>44853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 19794-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45895.480625</v>
+        <v>45051</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2421,14 +2421,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41381-2025</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45898</v>
+        <v>45173</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2592,14 +2592,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41395-2025</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45901.31965277778</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 42471-2025</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45905.46486111111</v>
+        <v>45895.480625</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45188</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 43151-2025</t>
+          <t>A 40154-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45910.33892361111</v>
+        <v>45894.5980787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44022-2025</t>
+          <t>A 40683-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45915.47851851852</v>
+        <v>45896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 41395-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>45901.31965277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 41381-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>45898</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3048,14 +3048,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 42471-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45642</v>
+        <v>45905.46486111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 43151-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45642</v>
+        <v>45910.33892361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 44022-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45229</v>
+        <v>45915.47851851852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48153-2025</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45933.41109953704</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45642</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45847</v>
+        <v>45642</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45155</v>
+        <v>45229</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45642</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>45642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 48153-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45182</v>
+        <v>45933.41109953704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>45847</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 35144-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45085</v>
+        <v>45852.65833333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>9.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45671</v>
+        <v>45155</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45188</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>45881</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 60969-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44853</v>
+        <v>44497.5580787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>45671</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44899</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60969-2021</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44497.5580787037</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 20684-2024</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45436.58445601852</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45164.34875</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8474-2023</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44977.50395833333</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5214,14 +5214,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>45164.34875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44883</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2269-2025</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45673.54107638889</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 20684-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>45436.58445601852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45319</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45293</v>
+        <v>45085</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>45182</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45789</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58619-2024</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45635.56216435185</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45173</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19794-2023</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45051</v>
+        <v>45319</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 63886-2023</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45278</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35144-2025</t>
+          <t>A 59223-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45852.65833333333</v>
+        <v>44899</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>45293</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6465,17 +6465,17 @@
       </c>
       <c r="R100" s="2" t="inlineStr"/>
     </row>
-    <row r="101">
+    <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>45789</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6521,6 +6521,120 @@
         <v>0</v>
       </c>
       <c r="R101" s="2" t="inlineStr"/>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>A 63886-2023</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>A 58619-2024</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>45635.56216435185</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44343.8302662037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45642</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45673.54107638889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44903.42074074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44977.50395833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>45671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45051</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>45173</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44903.41709490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44903.42262731482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45800.64942129629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45436.58555555555</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45895.480625</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45188</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45894.5980787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>45896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>45901.31965277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45898</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>45905.46486111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>45910.33892361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>45915.47851851852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>45155.48460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45590.61787037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>45386.56986111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45933.40649305555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45642</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45229</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45642</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>45933.41109953704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>45937.72574074074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45847</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45574.45354166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44977.49489583333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45852.65833333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>45852.64123842592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>45852.64978009259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45699.64050925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>45859.47606481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>45155</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>45958.56690972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45761.60342592592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>45761.60667824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>45761.60916666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45965.40274305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>45881</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>44497.5580787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>45671</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>45672.64579861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>45436.58328703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>45980.63579861111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>45980.63876157408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>45155.42420138889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45699.62943287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>46031.46165509259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44929.70428240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>45164.34875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>45653.70577546296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>46042.75251157407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>46059.58040509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>45436.58445601852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>46059.57417824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44343.55598379629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44977.50028935185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>45653.67324074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>45085</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>45182</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>45386.5583449074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45366.66769675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>45699.65163194444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>45319</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>45702.37914351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>45541.45914351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>45386.5759375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44899</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>45789.47318287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45293</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>45789</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>45278</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>45635.56216435185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44343.8302662037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45642</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45673.54107638889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44903.42074074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44977.50395833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>45671</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45051</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>45173</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44903.41709490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>44903.42262731482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45800.64942129629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45436.58555555555</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45895.480625</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45188</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45894.5980787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>45896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>45901.31965277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45898</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>45905.46486111111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>45910.33892361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>45915.47851851852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>45155.48460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45590.61787037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>45386.56986111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45933.40649305555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45642</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45229</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45642</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>45933.41109953704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>45937.72574074074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45847</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45574.45354166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44977.49489583333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45852.65833333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>45852.64123842592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>45852.64978009259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45699.64050925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>45859.47606481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>45155</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>45958.56690972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45761.60342592592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>45761.60667824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>45761.60916666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45965.40274305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>45881</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>44497.5580787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>45671</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>45672.64579861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>45436.58328703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>45980.63579861111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>45980.63876157408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>45155.42420138889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45699.62943287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>46031.46165509259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>44929.70428240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>45164.34875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>45653.70577546296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>46042.75251157407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>46059.58040509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>45436.58445601852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>46059.57417824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44343.55598379629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44977.50028935185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>45653.67324074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>45085</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>45182</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>45386.5583449074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45366.66769675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>45699.65163194444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>45319</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>45702.37914351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>45541.45914351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>45386.5759375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44899</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>45789.47318287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45293</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>45789</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>45278</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>45635.56216435185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 15108-2023</t>
+          <t>A 25789-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45016</v>
+        <v>44343.8302662037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -960,137 +960,137 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Gullklöver</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 15108-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 25789-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44343.8302662037</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 53422-2023</t>
+          <t>A 60261-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45229</v>
+        <v>45642</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1137,119 +1137,119 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 53422-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Huggorm</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 60261-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45642</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2269-2025</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45673.54107638889</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2136,14 +2136,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58793-2022</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44903.42074074074</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8474-2023</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44977.50395833333</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45671</v>
+        <v>45155</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44853</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 19794-2023</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45051</v>
+        <v>45182</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2421,14 +2421,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 40154-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45173</v>
+        <v>45894.5980787037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 40683-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>45896</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>45895.480625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2592,14 +2592,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 41381-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>45898</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 41395-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>45901.31965277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 35144-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45895.480625</v>
+        <v>45852.65833333333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45188</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 40154-2025</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45894.5980787037</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 40683-2025</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45896</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41395-2025</t>
+          <t>A 42471-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45901.31965277778</v>
+        <v>45905.46486111111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41381-2025</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45898</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3048,14 +3048,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42471-2025</t>
+          <t>A 43151-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45905.46486111111</v>
+        <v>45910.33892361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43151-2025</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45910.33892361111</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>45915.47851851852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3219,14 +3219,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>45881</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45671</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>45642</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45229</v>
+        <v>45642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45642</v>
+        <v>45229</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45642</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>45933.41109953704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>45642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45847</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>45847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 58793-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>44903.42074074074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35144-2025</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45852.65833333333</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45155</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>45671</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45881</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60969-2021</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44497.5580787037</v>
+        <v>45188</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45671</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>44853</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 59223-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>44899</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5214,14 +5214,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 60969-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45164.34875</v>
+        <v>44497.5580787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 20684-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44883</v>
+        <v>45436.58445601852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>45164.34875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7509-2026</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46059.58040509259</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 20684-2024</t>
+          <t>A 8474-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45436.58445601852</v>
+        <v>44977.50395833333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7506-2026</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46059.57417824074</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>44883</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 2269-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45085</v>
+        <v>45673.54107638889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45182</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>45319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45319</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>45789</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 58619-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44899</v>
+        <v>45635.56216435185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>45173</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 19794-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45293</v>
+        <v>45051</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6468,14 +6468,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 63886-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45789</v>
+        <v>45278</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6525,14 +6525,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 63886-2023</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45278</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6582,14 +6582,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58619-2024</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45635.56216435185</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 25789-2021</t>
+          <t>A 15108-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44343.8302662037</v>
+        <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -960,137 +960,137 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 25789-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44343.8302662037</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Gullklöver</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 15108-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 60261-2024</t>
+          <t>A 53422-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45642</v>
+        <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1137,119 +1137,119 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Huggorm</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 60261-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 53422-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Huggorm</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>45895.480625</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2136,14 +2136,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 40154-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45894.5980787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 2269-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>45673.54107638889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 40683-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45155</v>
+        <v>45896</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 58793-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45182</v>
+        <v>44903.42074074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2421,14 +2421,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 40154-2025</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45894.5980787037</v>
+        <v>45319</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 40683-2025</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45896</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45895.480625</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2592,14 +2592,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41381-2025</t>
+          <t>A 41395-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45898</v>
+        <v>45901.31965277778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41395-2025</t>
+          <t>A 8474-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45901.31965277778</v>
+        <v>44977.50395833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35144-2025</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45852.65833333333</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 41381-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 42471-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>45905.46486111111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 59223-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>44899</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 42471-2025</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45905.46486111111</v>
+        <v>44853</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>45671</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>45910.33892361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44022-2025</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45915.47851851852</v>
+        <v>45293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 44022-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45881</v>
+        <v>45915.47851851852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>9.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45671</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>45789</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 63886-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45642</v>
+        <v>45278</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 58619-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45642</v>
+        <v>45635.56216435185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 19794-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45229</v>
+        <v>45051</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>45173</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48153-2025</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45933.41109953704</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45642</v>
+        <v>45188</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45847</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58793-2022</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44903.42074074074</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>45642</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>45229</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>45642</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45085</v>
+        <v>45642</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 48153-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>45933.41109953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 35144-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45671</v>
+        <v>45852.65833333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45188</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>45847</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44853</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>45155</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7509-2026</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46059.58040509259</v>
+        <v>45881</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7506-2026</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46059.57417824074</v>
+        <v>45671</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44899</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>44497.5580787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20684-2024</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45436.58445601852</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45164.34875</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8474-2023</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44977.50395833333</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>4.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44883</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2269-2025</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45673.54107638889</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>45164.34875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>44883</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45319</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 20684-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>45436.58445601852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45293</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45789</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58619-2024</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45635.56216435185</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45173</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 19794-2023</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45051</v>
+        <v>45085</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6468,14 +6468,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63886-2023</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45278</v>
+        <v>45182</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6525,14 +6525,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6582,14 +6582,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 15108-2023</t>
+          <t>A 25789-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45016</v>
+        <v>44343.8302662037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -960,137 +960,137 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Gullklöver</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 15108-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 25789-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44343.8302662037</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 53422-2023</t>
+          <t>A 60261-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45229</v>
+        <v>45642</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1137,119 +1137,119 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 53422-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Huggorm</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 60261-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45642</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,14 +1680,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 54489-2021</t>
+          <t>A 55213-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1737,14 +1737,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 44466-2021</t>
+          <t>A 28159-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44435</v>
+        <v>44746</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55213-2021</t>
+          <t>A 10574-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44475</v>
+        <v>44258.4528587963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1851,14 +1851,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28159-2022</t>
+          <t>A 54489-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44746</v>
+        <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 10574-2021</t>
+          <t>A 60972-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44258.4528587963</v>
+        <v>44497.56181712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2022,14 +2022,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60972-2021</t>
+          <t>A 58793-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44497.56181712963</v>
+        <v>44903.42074074074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2079,14 +2079,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 44466-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45895.480625</v>
+        <v>44435</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2136,14 +2136,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40154-2025</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45894.5980787037</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2269-2025</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45673.54107638889</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 40683-2025</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45896</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 58793-2022</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44903.42074074074</v>
+        <v>45155</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2421,14 +2421,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45319</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>45085</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2592,14 +2592,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41395-2025</t>
+          <t>A 60969-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45901.31965277778</v>
+        <v>44497.5580787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 8474-2023</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44977.50395833333</v>
+        <v>45182</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41381-2025</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45898</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 42471-2025</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45905.46486111111</v>
+        <v>45671</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44899</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 20684-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44853</v>
+        <v>45436.58445601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45671</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3048,14 +3048,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43151-2025</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45910.33892361111</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45293</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44022-2025</t>
+          <t>A 35144-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45915.47851851852</v>
+        <v>45852.65833333333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45789</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 63886-2023</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45278</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58619-2024</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45635.56216435185</v>
+        <v>45188</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19794-2023</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45051</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45173</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45188</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>45164.34875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>44853</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>45881</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45642</v>
+        <v>45671</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45229</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 8474-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45642</v>
+        <v>44977.50395833333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45642</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48153-2025</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45933.41109953704</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>44883</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35144-2025</t>
+          <t>A 2269-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45852.65833333333</v>
+        <v>45673.54107638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 59223-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>44899</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 40154-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>45894.5980787037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 40683-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>45896</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45847</v>
+        <v>45895.480625</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>45319</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 41381-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45155</v>
+        <v>45898</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 41395-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45881</v>
+        <v>45901.31965277778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45671</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 42471-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>45905.46486111111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 43151-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>45910.33892361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 44022-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>45915.47851851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5214,14 +5214,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60969-2021</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44497.5580787037</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>45293</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>45642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>45642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>45229</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 48153-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>45933.41109953704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>45642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>45847</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45164.34875</v>
+        <v>45789</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 58619-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44883</v>
+        <v>45635.56216435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20684-2024</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45436.58445601852</v>
+        <v>45173</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 19794-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>45051</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 63886-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>45278</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7509-2026</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46059.58040509259</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7506-2026</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46059.57417824074</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45085</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6468,14 +6468,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45182</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6525,14 +6525,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6579,17 +6579,17 @@
       </c>
       <c r="R102" s="2" t="inlineStr"/>
     </row>
-    <row r="103">
+    <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,39 +6602,96 @@
         </is>
       </c>
       <c r="G103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" s="2" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>A 8328-2026</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>46064.62018518519</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
         <v>1.3</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0</v>
-      </c>
-      <c r="R103" s="2" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 25789-2021</t>
+          <t>A 15108-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44343.8302662037</v>
+        <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -942,16 +942,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -960,137 +960,137 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 25789-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44343.8302662037</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Gullklöver</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 15108-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 60261-2024</t>
+          <t>A 53422-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45642</v>
+        <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1137,119 +1137,119 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Huggorm</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 60261-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 53422-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Huggorm</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1680,14 +1680,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55213-2021</t>
+          <t>A 54489-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44475</v>
+        <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1737,14 +1737,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 28159-2022</t>
+          <t>A 44466-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44746</v>
+        <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10574-2021</t>
+          <t>A 55213-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44258.4528587963</v>
+        <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1851,14 +1851,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 54489-2021</t>
+          <t>A 28159-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44473</v>
+        <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 60972-2021</t>
+          <t>A 10574-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44497.56181712963</v>
+        <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2022,14 +2022,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 58793-2022</t>
+          <t>A 60972-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44903.42074074074</v>
+        <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2079,14 +2079,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 44466-2021</t>
+          <t>A 2269-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44435</v>
+        <v>45673.54107638889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2136,14 +2136,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 58793-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>44903.42074074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 8474-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>44977.50395833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>44853</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 63886-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45155</v>
+        <v>45278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2421,14 +2421,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 58619-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45635.56216435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 19794-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45085</v>
+        <v>45051</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2592,14 +2592,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60969-2021</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44497.5580787037</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45182</v>
+        <v>45173</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45671</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 8328-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>46064.62018518519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20684-2024</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45436.58445601852</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>45188</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3048,14 +3048,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>45895.480625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 40154-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>45894.5980787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 40683-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>45896</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 35144-2025</t>
+          <t>A 41395-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45852.65833333333</v>
+        <v>45901.31965277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 41381-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>45898</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 35144-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>45852.65833333333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45188</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>9.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 42471-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>45905.46486111111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 43151-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45164.34875</v>
+        <v>45910.33892361111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44853</v>
+        <v>45881</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45881</v>
+        <v>45671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45671</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 44022-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>45915.47851851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8474-2023</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44977.50395833333</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>45155</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44883</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2269-2025</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45673.54107638889</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44899</v>
+        <v>45642</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>45229</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40154-2025</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45894.5980787037</v>
+        <v>45642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40683-2025</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45896</v>
+        <v>45642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 48153-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45895.480625</v>
+        <v>45933.41109953704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 60969-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>44497.5580787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45319</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 41381-2025</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45898</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41395-2025</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45901.31965277778</v>
+        <v>45847</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42471-2025</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45905.46486111111</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43151-2025</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45910.33892361111</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44022-2025</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45915.47851851852</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5214,14 +5214,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45293</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45642</v>
+        <v>45164.34875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45642</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45229</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>44883</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48153-2025</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45933.41109953704</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45642</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 20684-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>45436.58445601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45847</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45789</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58619-2024</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45635.56216435185</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>45085</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45173</v>
+        <v>45182</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19794-2023</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45051</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 63886-2023</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45278</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>45319</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6468,14 +6468,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 59223-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>44899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6525,14 +6525,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7509-2026</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46059.58040509259</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6582,14 +6582,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7506-2026</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46059.57417824074</v>
+        <v>45293</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6639,14 +6639,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8328-2026</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46064.62018518519</v>
+        <v>45789</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44343.8302662037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45642</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45673.54107638889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44903.42074074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44977.50395833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44853</v>
+        <v>45789</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45671</v>
+        <v>44853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>45278</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>45635.56216435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7509-2026</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46059.58040509259</v>
+        <v>45671</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>45051</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2592,14 +2592,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7506-2026</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46059.57417824074</v>
+        <v>45173</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45173</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>45895.480625</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 40154-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>45894.5980787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 40683-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>45896</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8328-2026</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46064.62018518519</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 41395-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45188</v>
+        <v>45901.31965277778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3048,14 +3048,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 41381-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45895.480625</v>
+        <v>45898</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 40154-2025</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45894.5980787037</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40683-2025</t>
+          <t>A 42471-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45896</v>
+        <v>45905.46486111111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41395-2025</t>
+          <t>A 43151-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45901.31965277778</v>
+        <v>45910.33892361111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41381-2025</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45898</v>
+        <v>45188</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 44022-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>45915.47851851852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35144-2025</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45852.65833333333</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>45642</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>45229</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>45642</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 42471-2025</t>
+          <t>A 35144-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45905.46486111111</v>
+        <v>45852.65833333333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>45642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43151-2025</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45910.33892361111</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 48153-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45881</v>
+        <v>45933.41109953704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45671</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 44022-2025</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45915.47851851852</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>45847</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45155</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>45881</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>45671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45642</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45229</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45642</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45642</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48153-2025</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45933.41109953704</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60969-2021</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44497.5580787037</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 8328-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>46064.62018518519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>45155</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45847</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5214,14 +5214,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 60969-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>44497.5580787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45164.34875</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44883</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>45164.34875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20684-2024</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45436.58445601852</v>
+        <v>44883</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>9.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 20684-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>45436.58445601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45085</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45182</v>
+        <v>45085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>45182</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45319</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45319</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6468,14 +6468,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44899</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6525,14 +6525,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 59223-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>44899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6582,14 +6582,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45293</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6639,14 +6639,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45789</v>
+        <v>45293</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -998,14 +998,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 25789-2021</t>
+          <t>A 53422-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44343.8302662037</v>
+        <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1052,204 +1052,204 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Huggorm</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 60261-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 25789-2021</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44343.8302662037</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Gullklöver</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 53422-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Huggorm</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 60261-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45642</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45673.54107638889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44903.42074074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44977.50395833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45789</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44853</v>
+        <v>45293</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 63886-2023</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45278</v>
+        <v>45789</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2421,14 +2421,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 58619-2024</t>
+          <t>A 63886-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45635.56216435185</v>
+        <v>45278</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 58619-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45671</v>
+        <v>45635.56216435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 19794-2023</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45051</v>
+        <v>45895.480625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2592,14 +2592,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 19794-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45173</v>
+        <v>45051</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 40154-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>45894.5980787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45895.480625</v>
+        <v>44853</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 40154-2025</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45894.5980787037</v>
+        <v>45173</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>45896</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>45671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>45901.31965277778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>45898</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 42471-2025</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45905.46486111111</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43151-2025</t>
+          <t>A 42471-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45910.33892361111</v>
+        <v>45905.46486111111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45188</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 44022-2025</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45915.47851851852</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 43151-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>45910.33892361111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45642</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 44022-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45229</v>
+        <v>45915.47851851852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45642</v>
+        <v>45188</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35144-2025</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45852.65833333333</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>45642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>45229</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>45642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48153-2025</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45933.41109953704</v>
+        <v>45642</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 48153-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>45933.41109953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>45847</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 35144-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45847</v>
+        <v>45852.65833333333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45881</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45671</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7509-2026</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46059.58040509259</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7506-2026</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46059.57417824074</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>45881</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>45671</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8328-2026</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46064.62018518519</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45155</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>45155</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 60969-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>44497.5580787037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5214,14 +5214,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60969-2021</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44497.5580787037</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45164.34875</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 8328-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44883</v>
+        <v>46064.62018518519</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>45164.34875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20684-2024</t>
+          <t>A 9149-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45436.58445601852</v>
+        <v>46070.31185185185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>44883</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>9.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 20684-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>45436.58445601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45085</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45182</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>45085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>45182</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45319</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6468,14 +6468,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>45319</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6525,14 +6525,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44899</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6582,14 +6582,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6636,17 +6636,17 @@
       </c>
       <c r="R103" s="2" t="inlineStr"/>
     </row>
-    <row r="104">
+    <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45293</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6692,6 +6692,63 @@
         <v>0</v>
       </c>
       <c r="R104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>A 59223-2022</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>44899</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 15108-2023</t>
+          <t>A 60261-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45016</v>
+        <v>45642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -951,47 +951,47 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
         <v/>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>45229</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1083,14 +1083,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 60261-2024</t>
+          <t>A 25789-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45642</v>
+        <v>44343.8302662037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1103,17 +1103,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1137,45 +1137,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25789-2021</t>
+          <t>A 15108-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44343.8302662037</v>
+        <v>45016</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1215,38 +1215,38 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
         <v/>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2269-2025</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45673.54107638889</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2136,14 +2136,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58793-2022</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44903.42074074074</v>
+        <v>45642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8474-2023</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44977.50395833333</v>
+        <v>45642</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>45229</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45293</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 48153-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45789</v>
+        <v>45933.41109953704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2421,14 +2421,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 63886-2023</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45278</v>
+        <v>45642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58619-2024</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45635.56216435185</v>
+        <v>45293</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45895.480625</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2592,14 +2592,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19794-2023</t>
+          <t>A 40154-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45051</v>
+        <v>45894.5980787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40154-2025</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45894.5980787037</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 40683-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44853</v>
+        <v>45896</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45173</v>
+        <v>45895.480625</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 40683-2025</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45896</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 41381-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>45898</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45671</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41395-2025</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45901.31965277778</v>
+        <v>45789</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3048,14 +3048,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 41381-2025</t>
+          <t>A 41395-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45898</v>
+        <v>45901.31965277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>45847</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 58619-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>45635.56216435185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>45905.46486111111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>45173</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 19794-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>45051</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43151-2025</t>
+          <t>A 63886-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45910.33892361111</v>
+        <v>45278</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44022-2025</t>
+          <t>A 43151-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45915.47851851852</v>
+        <v>45910.33892361111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45188</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 44022-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>45915.47851851852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45642</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45229</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45642</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45642</v>
+        <v>45155</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48153-2025</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45933.41109953704</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45847</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>45182</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>45852.65833333333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>45881</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>45671</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45881</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45671</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 58793-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45155</v>
+        <v>44903.42074074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 8328-2026</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>46064.62018518519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 9149-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>46070.31185185185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>45085</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 60969-2021</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44497.5580787037</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5214,14 +5214,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>45671</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7509-2026</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46059.58040509259</v>
+        <v>45188</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7506-2026</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46059.57417824074</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8328-2026</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46064.62018518519</v>
+        <v>44853</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45164.34875</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9149-2026</t>
+          <t>A 59223-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46070.31185185185</v>
+        <v>44899</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44883</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 60969-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>44497.5580787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>45436.58445601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>9.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>45164.34875</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 8474-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45085</v>
+        <v>44977.50395833333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45182</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>44883</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6468,14 +6468,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 2269-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45319</v>
+        <v>45673.54107638889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6525,14 +6525,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6582,14 +6582,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6639,14 +6639,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>45319</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6696,14 +6696,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44899</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 60261-2024</t>
+          <t>A 15108-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45642</v>
+        <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,323 +933,323 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 25789-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44343.8302662037</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Gullklöver</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 53422-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Huggorm</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 60261-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LYSEKIL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 60261-2024 artfynd.xlsx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 60261-2024 karta.png", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 60261-2024 FSC-klagomål.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 60261-2024 FSC-klagomål mail.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 60261-2024 tillsynsbegäran.docx", "A 60261-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 60261-2024 tillsynsbegäran mail.docx", "A 60261-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 53422-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Huggorm</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 53422-2023 artfynd.xlsx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 53422-2023 karta.png", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 53422-2023 FSC-klagomål.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 53422-2023 FSC-klagomål mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 53422-2023 tillsynsbegäran.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 53422-2023 tillsynsbegäran mail.docx", "A 53422-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 25789-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44343.8302662037</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 25789-2021 artfynd.xlsx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 25789-2021 karta.png", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 25789-2021 FSC-klagomål.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 25789-2021 FSC-klagomål mail.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 25789-2021 tillsynsbegäran.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 25789-2021 tillsynsbegäran mail.docx", "A 25789-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 15108-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LYSEKIL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/artfynd/A 15108-2023 artfynd.xlsx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/kartor/A 15108-2023 karta.png", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomål/A 15108-2023 FSC-klagomål.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/klagomålsmail/A 15108-2023 FSC-klagomål mail.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsyn/A 15108-2023 tillsynsbegäran.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1484/tillsynsmail/A 15108-2023 tillsynsbegäran mail.docx", "A 15108-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6509-2025</t>
+          <t>A 2269-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45699.65163194444</v>
+        <v>45673.54107638889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2136,14 +2136,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 60262-2024</t>
+          <t>A 58793-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45642</v>
+        <v>44903.42074074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2193,14 +2193,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 60265-2024</t>
+          <t>A 8474-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45642</v>
+        <v>44977.50395833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 53423-2023</t>
+          <t>A 47304-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45229</v>
+        <v>44853</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48148-2025</t>
+          <t>A 2053-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45933.40649305555</v>
+        <v>45671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48153-2025</t>
+          <t>A 58789-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45933.41109953704</v>
+        <v>44903.41709490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2421,14 +2421,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60255-2024</t>
+          <t>A 58794-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45642</v>
+        <v>44903.42262731482</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52-2024</t>
+          <t>A 44146-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45293</v>
+        <v>45188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 10579-2024</t>
+          <t>A 40348-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45366.66769675926</v>
+        <v>45895.480625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>45894.5980787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2649,14 +2649,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22658-2025</t>
+          <t>A 40683-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45789.47318287037</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2706,14 +2706,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 40683-2025</t>
+          <t>A 41395-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45896</v>
+        <v>45901.31965277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2763,14 +2763,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 40348-2025</t>
+          <t>A 41381-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45895.480625</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2820,14 +2820,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13246-2024</t>
+          <t>A 42471-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45386.56986111111</v>
+        <v>45905.46486111111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2877,14 +2877,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 41381-2025</t>
+          <t>A 37077-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45898</v>
+        <v>45155.48460648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2934,14 +2934,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49105-2025</t>
+          <t>A 43151-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45937.72574074074</v>
+        <v>45910.33892361111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2991,14 +2991,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22605-2025</t>
+          <t>A 48403-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45789</v>
+        <v>45590.61787037037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3048,14 +3048,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 41395-2025</t>
+          <t>A 44022-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45901.31965277778</v>
+        <v>45915.47851851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3105,14 +3105,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34623-2025</t>
+          <t>A 13246-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45847</v>
+        <v>45386.56986111111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 58619-2024</t>
+          <t>A 35144-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45635.56216435185</v>
+        <v>45852.65833333333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3219,14 +3219,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 42471-2025</t>
+          <t>A 35135-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45905.46486111111</v>
+        <v>45852.64123842592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3276,14 +3276,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41581-2023</t>
+          <t>A 35139-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45173</v>
+        <v>45852.64978009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3333,14 +3333,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19794-2023</t>
+          <t>A 35640-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45051</v>
+        <v>45859.47606481481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3390,14 +3390,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 63886-2023</t>
+          <t>A 44536-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45278</v>
+        <v>45574.45354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 53191-2025</t>
+          <t>A 48148-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45958.56690972222</v>
+        <v>45933.40649305555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3504,14 +3504,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 43151-2025</t>
+          <t>A 60265-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45910.33892361111</v>
+        <v>45642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 25395-2025</t>
+          <t>A 53423-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45800.64942129629</v>
+        <v>45229</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3618,14 +3618,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44022-2025</t>
+          <t>A 60262-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45915.47851851852</v>
+        <v>45642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3675,14 +3675,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 54366-2025</t>
+          <t>A 60255-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45965.40274305556</v>
+        <v>45642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3732,14 +3732,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48403-2024</t>
+          <t>A 8464-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45590.61787037037</v>
+        <v>44977.49489583333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3789,14 +3789,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20685-2024</t>
+          <t>A 48153-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45436.58555555555</v>
+        <v>45933.41109953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3846,14 +3846,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37149-2023</t>
+          <t>A 38036-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45155</v>
+        <v>45881</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 57532-2025</t>
+          <t>A 2058-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45980.63876157408</v>
+        <v>45671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3960,14 +3960,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 57530-2025</t>
+          <t>A 6500-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45980.63579861111</v>
+        <v>45699.64050925926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4017,14 +4017,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7149-2025</t>
+          <t>A 37149-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45702.37914351852</v>
+        <v>45155</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43028-2023</t>
+          <t>A 49105-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45182</v>
+        <v>45937.72574074074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4131,14 +4131,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35144-2025</t>
+          <t>A 34623-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45852.65833333333</v>
+        <v>45847</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4188,14 +4188,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35139-2025</t>
+          <t>A 18138-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45852.64978009259</v>
+        <v>45761.60342592592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4245,14 +4245,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1265-2026</t>
+          <t>A 18142-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46031.46165509259</v>
+        <v>45761.60667824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35135-2025</t>
+          <t>A 18143-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45852.64123842592</v>
+        <v>45761.60916666667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4359,14 +4359,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35640-2025</t>
+          <t>A 60969-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45859.47606481481</v>
+        <v>44497.5580787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4416,14 +4416,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2122-2025</t>
+          <t>A 53191-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45672.64579861111</v>
+        <v>45958.56690972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4473,14 +4473,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8469-2023</t>
+          <t>A 2122-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44977.50028935185</v>
+        <v>45672.64579861111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38036-2025</t>
+          <t>A 54366-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45881</v>
+        <v>45965.40274305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2058-2025</t>
+          <t>A 20683-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45671</v>
+        <v>45436.58328703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4644,14 +4644,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25657-2021</t>
+          <t>A 37050-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44343.55598379629</v>
+        <v>45155.42420138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>9.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4701,14 +4701,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61985-2024</t>
+          <t>A 6491-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45653.67324074074</v>
+        <v>45699.62943287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4758,14 +4758,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3588-2026</t>
+          <t>A 57530-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46042.75251157407</v>
+        <v>45980.63579861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4815,14 +4815,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7509-2026</t>
+          <t>A 57532-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46059.58040509259</v>
+        <v>45980.63876157408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4872,14 +4872,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7506-2026</t>
+          <t>A 440-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46059.57417824074</v>
+        <v>44929.70428240741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4929,14 +4929,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58793-2022</t>
+          <t>A 39085-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44903.42074074074</v>
+        <v>45164.34875</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4986,14 +4986,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8328-2026</t>
+          <t>A 54740-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46064.62018518519</v>
+        <v>44883</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9149-2026</t>
+          <t>A 61991-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46070.31185185185</v>
+        <v>45653.70577546296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5100,14 +5100,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25009-2023</t>
+          <t>A 3588-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45085</v>
+        <v>46042.75251157407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5157,14 +5157,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44536-2024</t>
+          <t>A 20684-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45574.45354166667</v>
+        <v>45436.58445601852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5214,14 +5214,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37583-2024</t>
+          <t>A 7509-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45541.45914351852</v>
+        <v>46059.58040509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2053-2025</t>
+          <t>A 25657-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45671</v>
+        <v>44343.55598379629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5328,14 +5328,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61991-2024</t>
+          <t>A 8328-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45653.70577546296</v>
+        <v>46064.62018518519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 37050-2023</t>
+          <t>A 8469-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45155.42420138889</v>
+        <v>44977.50028935185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 37077-2023</t>
+          <t>A 61985-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45155.48460648148</v>
+        <v>45653.67324074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5499,14 +5499,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44146-2023</t>
+          <t>A 9149-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45188</v>
+        <v>46070.31185185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5556,14 +5556,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58789-2022</t>
+          <t>A 1265-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44903.41709490741</v>
+        <v>46031.46165509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5613,14 +5613,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58794-2022</t>
+          <t>A 7506-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44903.42262731482</v>
+        <v>46059.57417824074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5670,14 +5670,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47304-2022</t>
+          <t>A 25009-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44853</v>
+        <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5727,14 +5727,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20683-2024</t>
+          <t>A 43028-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45436.58328703704</v>
+        <v>45182</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5784,14 +5784,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 59223-2022</t>
+          <t>A 13239-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44899</v>
+        <v>45386.5583449074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8464-2023</t>
+          <t>A 10579-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44977.49489583333</v>
+        <v>45366.66769675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 60969-2021</t>
+          <t>A 6509-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44497.5580787037</v>
+        <v>45699.65163194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20684-2024</t>
+          <t>A 3408-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45436.58445601852</v>
+        <v>45319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6012,14 +6012,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13239-2024</t>
+          <t>A 7149-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45386.5583449074</v>
+        <v>45702.37914351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6069,14 +6069,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39085-2023</t>
+          <t>A 37583-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45164.34875</v>
+        <v>45541.45914351852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6126,14 +6126,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 440-2023</t>
+          <t>A 13250-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44929.70428240741</v>
+        <v>45386.5759375</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8474-2023</t>
+          <t>A 59223-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44977.50395833333</v>
+        <v>44899</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6240,14 +6240,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18138-2025</t>
+          <t>A 22658-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45761.60342592592</v>
+        <v>45789.47318287037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6297,14 +6297,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18142-2025</t>
+          <t>A 52-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45761.60667824074</v>
+        <v>45293</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6354,14 +6354,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18143-2025</t>
+          <t>A 22605-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45761.60916666667</v>
+        <v>45789</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6411,14 +6411,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54740-2022</t>
+          <t>A 63886-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44883</v>
+        <v>45278</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6468,14 +6468,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2269-2025</t>
+          <t>A 58619-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45673.54107638889</v>
+        <v>45635.56216435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6525,14 +6525,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6500-2025</t>
+          <t>A 19794-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45699.64050925926</v>
+        <v>45051</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6582,14 +6582,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13250-2024</t>
+          <t>A 41581-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45386.5759375</v>
+        <v>45173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6639,14 +6639,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3408-2024</t>
+          <t>A 25395-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45319</v>
+        <v>45800.64942129629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6696,14 +6696,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6491-2025</t>
+          <t>A 20685-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45699.62943287037</v>
+        <v>45436.58555555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -575,7 +575,7 @@
         <v>45860.84145833334</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44675.91282407408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44435</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45016</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44343.8302662037</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45229</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45642</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>46000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44713.61376157407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44594</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44529</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44258.45496527778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44435</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44746</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44472</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44258.4528587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44497.56181712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45673.54107638889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44903.42074074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44977.50395833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44853</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>45671</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44903.41709490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44903.42262731482</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>45188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>45895.480625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45894.5980787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45896</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45901.31965277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45898</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45905.46486111111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>45155.48460648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>45910.33892361111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45590.61787037037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>45915.47851851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>45386.56986111111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>45852.65833333333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>45852.64123842592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>45852.64978009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>45859.47606481481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>45574.45354166667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>45933.40649305555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45229</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>45642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44977.49489583333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45933.41109953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45881</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45699.64050925926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>45155</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>45937.72574074074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45847</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>45761.60342592592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>45761.60667824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>45761.60916666667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44497.5580787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>45958.56690972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>45672.64579861111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45965.40274305556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>45436.58328703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>45155.42420138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>45699.62943287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>45980.63579861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>45980.63876157408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>44929.70428240741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>45164.34875</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>44883</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45653.70577546296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>46042.75251157407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>45436.58445601852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>46059.58040509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44343.55598379629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>46064.62018518519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44977.50028935185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>45653.67324074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>46070.31185185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>46031.46165509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>46059.57417824074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>45182</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>45386.5583449074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>45366.66769675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>45699.65163194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>45702.37914351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>45541.45914351852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>45386.5759375</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>44899</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>45789.47318287037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>45293</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>45789</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45278</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>45635.56216435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>45051</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>45173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>45800.64942129629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45436.58555555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
